--- a/medicine/Psychotrope/Abbaye_Notre-Dame_de_Scourmont/Abbaye_Notre-Dame_de_Scourmont.xlsx
+++ b/medicine/Psychotrope/Abbaye_Notre-Dame_de_Scourmont/Abbaye_Notre-Dame_de_Scourmont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'abbaye Notre-Dame de Scourmont est située à Forges, à sept kilomètres au sud de la ville de Chimay, en Belgique. C'est une abbaye de l'Ordre cistercien de la stricte observance ayant été construite par des moines cisterciens-trappistes de l'abbaye Saint-Sixte dans la seconde moitié du XIXe siècle et toujours en activité.
@@ -514,7 +526,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'abbaye Notre-Dame de Scourmont se trouve sur le territoire de Forges, à sept kilomètres au sud de la ville de Chimay, en Belgique, dans la province de Hainaut. À 4 kms au sud par la D10 se trouve la frontière française au lieu-dit de La Gruerie, appartenant à la commune de Signy-le-Petit, dans le département des Ardennes, en région Grand Est.
 </t>
@@ -545,11 +559,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les origines de Scourmont se rattachent à une communauté de moines trappistes de Westvleteren (Ypres) qui le 25 juillet 1850, à l’initiative de l’abbé Jourdain (prêtre de la région de Chimay), envoya 17 moines s’établir sur une terre offerte par le Prince Joseph de Chimay.
 Dès leur arrivée, ceux-ci s’attelèrent à défricher la terre située au lieu-dit Mont du secours où ils bâtirent tout d’abord un domaine agricole et ensuite les bâtiments de l’abbaye. La croix de fondation porte cette inscription : « Le 25 juillet 1850 les moines cisterciens fondant l’abbaye de Scourmont commencèrent à louer Dieu et à défricher la terre »
-La fondation du prieuré date précisément de 1850, lequel est élevé au rang d'abbaye en 1871[1].
+La fondation du prieuré date précisément de 1850, lequel est élevé au rang d'abbaye en 1871.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Communauté monastique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant d'être une brasserie l'abbaye est une communauté d'une quinzaine de moines qui tentent de vivre l'Évangile suivant le modèle que propose la règle de saint Benoît: des journées où alternent la prière (personnelle ou chorale), le travail (champs, brasserie ou intellectuel) et le repos. La solitude du moine (Du grec monos, seul) est choisie par lui pour que sa vie soit mieux remplie de la présence de Dieu. Les moines se retrouvent ensemble 7 fois par jour dans leur église pour chanter l'office divin et célébrer l'eucharistie, vivent dans le silence monastique qui n'empêche pas des rencontres personnelles (pas de temps de récréation fixe) et donnent une place importante (comme le demande saint Benoît) à l'accueil des hôtes. Scourmont a une hôtellerie où viennent se ressourcer spirituellement des groupes de jeunes, de prêtres et d'autres[2]. L'hôtellerie ne vend ni fromage ni bière.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant d'être une brasserie l'abbaye est une communauté d'une quinzaine de moines qui tentent de vivre l'Évangile suivant le modèle que propose la règle de saint Benoît: des journées où alternent la prière (personnelle ou chorale), le travail (champs, brasserie ou intellectuel) et le repos. La solitude du moine (Du grec monos, seul) est choisie par lui pour que sa vie soit mieux remplie de la présence de Dieu. Les moines se retrouvent ensemble 7 fois par jour dans leur église pour chanter l'office divin et célébrer l'eucharistie, vivent dans le silence monastique qui n'empêche pas des rencontres personnelles (pas de temps de récréation fixe) et donnent une place importante (comme le demande saint Benoît) à l'accueil des hôtes. Scourmont a une hôtellerie où viennent se ressourcer spirituellement des groupes de jeunes, de prêtres et d'autres. L'hôtellerie ne vend ni fromage ni bière.
 Les moines participent également à une revue internationale d'histoire et de spiritualité cistercienne, les Collectanea Cisterciensia et publient des livres grâce à leur propre maison d'édition: les Cahiers Scourmontois. Certains moines, notamment Père Bernard de Give, sont également engagés dans le dialogue inter-monastique, en particulier avec des moines de tradition orientale bouddhiste et tibétaine.
 </t>
         </is>
@@ -610,7 +628,9 @@
           <t>Les pères abbés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1871-1890 : Dom Hyacinthe Bouteca (1825-1897), 1er abbé de Scourmont
 ??-1901 : Dom Godefroid Bouillon (1844-1901), 2e abbé de Scourmont
@@ -621,7 +641,7 @@
 1992-1996 : Dom Gérard Vangheluwe, supérieur ad nutum puis 7e abbé de Scourmont (démissionnaire)
 1996-1998 : Dom Augustine Roberts, supérieur ad nutum
 1999-2017 : Dom Armand Veilleux (1937-), 8e abbé de Scourmont
-Depuis 2017- : Dom Damien Debaisieux (1971-), 9e abbé de Scourmont, élu par la communauté le vendredi 17 novembre 2017)[3].</t>
+Depuis 2017- : Dom Damien Debaisieux (1971-), 9e abbé de Scourmont, élu par la communauté le vendredi 17 novembre 2017).</t>
         </is>
       </c>
     </row>
@@ -649,7 +669,9 @@
           <t>Fondations à l'extérieur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dans la meilleure tradition des moines pionniers (assèchement de marais, défrichement de terre, engagement personnel dans la construction des bâtiments, autonomie énergétique) les trappistes de Scourmont essaimèrent en 1954, à Goma (en R.D du Congo) : l'abbaye des lacs Mokoto. Un développement difficile mais prometteur (de nombreuses vocations) fut gravement compromis lors de la guerre dans l’Est du Congo : le monastère fut entièrement détruit. Plusieurs moines congolais de Mokoto rejoignirent alors l'abbaye de Scourmont.
 Suivant chacune une histoire particulière d’autres abbayes furent affiliées (devenues ainsi ‘abbayes-filles’) à Scourmont :
@@ -684,10 +706,12 @@
           <t>Aspects patrimoniaux</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye rassemble, autour de quatre cours intérieures, d'importantes constructions du début du XIXe siècle, transformées et embellies pendant l'entre-deux-guerres : cloîtres, ateliers, brasserie, remises, écuries, vastes étables, grange immense, etc. Un fin clocher, recouvert d'ardoises et de plaques de métal imbriquées les unes dans les autres, existe dans cet ensemble[1].
-Joseph de Riquet, prince de Chimay, qui a favorisé l'établissement des Trappistes à Scourmont et leur a offert 48 hectares de terres, repose, depuis 1886, dans un caveau abrité, dans l'enceinte de l'enclos monastique, par une sorte de tumulus[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye rassemble, autour de quatre cours intérieures, d'importantes constructions du début du XIXe siècle, transformées et embellies pendant l'entre-deux-guerres : cloîtres, ateliers, brasserie, remises, écuries, vastes étables, grange immense, etc. Un fin clocher, recouvert d'ardoises et de plaques de métal imbriquées les unes dans les autres, existe dans cet ensemble.
+Joseph de Riquet, prince de Chimay, qui a favorisé l'établissement des Trappistes à Scourmont et leur a offert 48 hectares de terres, repose, depuis 1886, dans un caveau abrité, dans l'enceinte de l'enclos monastique, par une sorte de tumulus.
 </t>
         </is>
       </c>
@@ -716,7 +740,9 @@
           <t>Brasserie et fromagerie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Très vite la bière et le fromage produits par les moines trappistes acquirent une renommée qui dépassa les frontières de la Belgique. En effet, dès 1876, les moines trappistes de Scourmont avaient retrouvé les secrets de fabrication d’un fromage à pâte dure, qu’ils ont commencé à produire à partir du lait de leur ferme et qu’ils affinaient dans les caves voûtées de l’Abbaye. Un autre produit fut élaboré et brassé au même endroit. C’est la fameuse bière trappiste de Chimay.
 Le succès remporté par ces produits incita à créer une nouvelle unité de production à Baileux (Chimay) qui fut inaugurée le 22 octobre 1982. On y fabrique le fromage et on y embouteille la bière. Toutefois la bière trappiste est toujours brassée à l'abbaye.
